--- a/biology/Zoologie/Aratinga/Aratinga.xlsx
+++ b/biology/Zoologie/Aratinga/Aratinga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aratinga, créé par Johann Baptist von Spix (1781-1826), comprend un groupe de perroquets néotropicaux, connus sous le nom commun de conures. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oiseaux généralement sociables vivant en bandes parfois nombreuses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oiseaux généralement sociables vivant en bandes parfois nombreuses.
 </t>
         </is>
       </c>
@@ -568,11 +584,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Suivant une étude phylogénique de Remsen et al. (2013), ce genre est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013). Le genre Aratinga passe alors de 22 espèces à 6. Cinq espèces sont déplacées vers le genre Eupsittula, onze vers Psittacara, et une vers Thectocercus. La Conure nanday (anciennement Nandayus nenday) est déplacée dans Aratinga.
-Liste des espèces
-Selon la classification de référence du Congrès ornithologique international  (version 3.5, 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), ce genre est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013). Le genre Aratinga passe alors de 22 espèces à 6. Cinq espèces sont déplacées vers le genre Eupsittula, onze vers Psittacara, et une vers Thectocercus. La Conure nanday (anciennement Nandayus nenday) est déplacée dans Aratinga.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aratinga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aratinga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 3.5, 2013) :
 Aratinga weddellii – Conure de Weddell
 Aratinga solstitialis – Conure soleil
 Aratinga nenday – Conure nanday
@@ -584,31 +637,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aratinga</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aratinga</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Conure</t>
         </is>
